--- a/APF/RA006/RA006  Review 時間登記表.xlsx
+++ b/APF/RA006/RA006  Review 時間登記表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
   <si>
     <t>9:30~12:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -31,18 +31,6 @@
   </si>
   <si>
     <t>綠色個區段是可以REVEW的時間，請填case ID如 (APF0001)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APF0401(SA/SD)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APF0203(SA/SD)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APF0502(SA/SD)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -52,6 +40,61 @@
   <si>
     <t>APF0001(SD)
 APF0101(SA/SD)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMD0001(SA/SD)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">速達定例會，傳勝你應該沒空
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>那下午就會有空了</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMD0102(SA)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMD9002(SA/SD)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMD0101(SA/SD)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APF0203(SA/SD)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APF0401(SA/SD)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APF0506(SA/SD)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APF0202(SA/SD)
+APF0502(SA/SD)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APF0203(SA/SD)-2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -62,7 +105,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -88,6 +131,14 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
@@ -178,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -191,6 +242,13 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -199,9 +257,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -506,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -540,12 +595,12 @@
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13"/>
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="2:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -576,17 +631,21 @@
         <v>41586</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="1"/>
+      <c r="C6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="2:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
@@ -594,10 +653,12 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="E7" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="3" t="s">
-        <v>5</v>
+      <c r="G7" s="8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -606,9 +667,13 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
@@ -633,9 +698,11 @@
         <v>0</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="1"/>
@@ -644,25 +711,31 @@
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="3" t="s">
-        <v>6</v>
+      <c r="E12" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
@@ -686,7 +759,9 @@
       <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D14" s="7"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -708,7 +783,7 @@
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="3"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="1"/>
       <c r="G16" s="3"/>
     </row>
@@ -756,7 +831,7 @@
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="3"/>
+      <c r="E20" s="7"/>
       <c r="F20" s="1"/>
       <c r="G20" s="3"/>
     </row>
